--- a/player_data/選手データ仕様.xlsx
+++ b/player_data/選手データ仕様.xlsx
@@ -20,7 +20,7 @@
     <rPh sb="0" eb="2">
       <t>スウチ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>コスト
@@ -71,11 +71,11 @@
     <rPh sb="50" eb="54">
       <t>シシャゴニュウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>少数第3位</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>被本塁打率
@@ -89,7 +89,7 @@
     <rPh sb="4" eb="5">
       <t>リツ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">選手の安打を打たれる確率。
@@ -133,11 +133,11 @@
     <rPh sb="48" eb="52">
       <t>シシャゴニュウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>少数第3位</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>被安打率
@@ -148,7 +148,7 @@
     <rPh sb="3" eb="4">
       <t>リツ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">選手の三振を奪う確率。
@@ -204,7 +204,7 @@
     <rPh sb="47" eb="51">
       <t>シシャゴニュウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>奪三振率
@@ -270,7 +270,7 @@
     <rPh sb="54" eb="58">
       <t>シシャゴニュウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>与四死球率
@@ -290,7 +290,7 @@
     <rPh sb="4" eb="5">
       <t>リツ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">選手の打率データ。
@@ -305,14 +305,14 @@
     <rPh sb="10" eb="12">
       <t>サンコウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>防御率</t>
     <rPh sb="0" eb="3">
       <t>ボウギョリツ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">選手の名前。
@@ -343,28 +343,28 @@
     <rPh sb="37" eb="39">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>20文字</t>
     <rPh sb="2" eb="4">
       <t>モジ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>文字列</t>
     <rPh sb="0" eb="3">
       <t>モジレツ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>選手名</t>
     <rPh sb="0" eb="3">
       <t>センシュメイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ID</t>
@@ -374,21 +374,21 @@
     <rPh sb="0" eb="2">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>桁数</t>
     <rPh sb="0" eb="2">
       <t>ケタスウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>型</t>
     <rPh sb="0" eb="1">
       <t>カタ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>野手パラメータ名</t>
@@ -398,7 +398,7 @@
     <rPh sb="7" eb="8">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>●投手パラメータ一覧</t>
@@ -408,7 +408,7 @@
     <rPh sb="8" eb="10">
       <t>イチラン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">打席結果が三振となる確率。
@@ -455,7 +455,7 @@
     <rPh sb="48" eb="52">
       <t>シシャゴニュウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>三振率
@@ -466,7 +466,7 @@
     <rPh sb="2" eb="3">
       <t>リツ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">打席結果が四球となる確率。
@@ -516,7 +516,7 @@
     <rPh sb="53" eb="57">
       <t>シシャゴニュウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>四球率
@@ -527,7 +527,7 @@
     <rPh sb="2" eb="3">
       <t>リツ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">選手の本塁打を打つ確率。
@@ -577,7 +577,7 @@
     <rPh sb="61" eb="65">
       <t>シシャゴニュウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>本塁打率
@@ -597,7 +597,7 @@
     <rPh sb="10" eb="11">
       <t>イ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">選手の三塁打を打つ確率。
@@ -644,7 +644,7 @@
     <rPh sb="61" eb="65">
       <t>シシャゴニュウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>三塁打率
@@ -664,7 +664,7 @@
     <rPh sb="10" eb="11">
       <t>イ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">選手の二塁打を打つ確率。
@@ -717,7 +717,7 @@
     <rPh sb="61" eb="65">
       <t>シシャゴニュウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>二塁打率
@@ -737,7 +737,7 @@
     <rPh sb="10" eb="11">
       <t>イ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">選手の一塁打を打つ確率。
@@ -793,7 +793,7 @@
     <rPh sb="61" eb="65">
       <t>シシャゴニュウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>一塁打率
@@ -813,14 +813,14 @@
     <rPh sb="10" eb="11">
       <t>イ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>打率</t>
     <rPh sb="0" eb="2">
       <t>ダリツ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>●野手パラメータ一覧</t>
@@ -830,7 +830,7 @@
     <rPh sb="8" eb="10">
       <t>イチラン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>■選手データ仕様</t>
@@ -840,39 +840,39 @@
     <rPh sb="6" eb="8">
       <t>シヨウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>●選手データファイル</t>
     <rPh sb="1" eb="3">
       <t>センシュ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>ファイル名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>文字コード</t>
     <rPh sb="0" eb="2">
       <t>モジ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>UTF8</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">選手を一意に決めるID。
@@ -896,284 +896,31 @@
     <rPh sb="28" eb="30">
       <t>ニンブン</t>
     </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>クラス</t>
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>クラス</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>オープン</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>採用クラス</t>
     <rPh sb="0" eb="2">
       <t>サイヨウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>オープン
 ビギナー</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t xml:space="preserve">選手のコスト。
-最大値は100。
-●コストは野手パラメータの打率、本塁打率、四球率、三振率のランキングで計算する。（ビギナーは打率のみ）
-●ランクはA～Fとし、それぞれ以下の評価値を付与する。
-A:10、B:8、C:6、D:4、E:2、F:1
-●各パラメータのランク評価値を合計し、MAX100となる倍率で計算する。（小数点以下を四捨五入）
-例：
-打率A、本塁打率：C、四球率：A、三振率：E
-コスト=100*（10+6+10+2)/40
-       =70
-</t>
-    <rPh sb="0" eb="2">
-      <t>センシュ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>サイダイチ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヤシュ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ダリツ</t>
-    </rPh>
-    <rPh sb="33" eb="36">
-      <t>ホンルイダ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>リツ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>シキュウ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>リツ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>サンシン</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>リツ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ケイサン</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ダリツ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="89" eb="90">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>フヨ</t>
-    </rPh>
-    <rPh sb="123" eb="124">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="133" eb="135">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="135" eb="136">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="137" eb="139">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="150" eb="152">
-      <t>バイリツ</t>
-    </rPh>
-    <rPh sb="153" eb="155">
-      <t>ケイサン</t>
-    </rPh>
-    <rPh sb="159" eb="162">
-      <t>ショウスウテン</t>
-    </rPh>
-    <rPh sb="162" eb="164">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="165" eb="169">
-      <t>シシャゴニュウ</t>
-    </rPh>
-    <rPh sb="171" eb="172">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="174" eb="176">
-      <t>ダリツ</t>
-    </rPh>
-    <rPh sb="178" eb="181">
-      <t>ホンルイダ</t>
-    </rPh>
-    <rPh sb="181" eb="182">
-      <t>リツ</t>
-    </rPh>
-    <rPh sb="185" eb="187">
-      <t>シキュウ</t>
-    </rPh>
-    <rPh sb="187" eb="188">
-      <t>リツ</t>
-    </rPh>
-    <rPh sb="191" eb="193">
-      <t>サンシン</t>
-    </rPh>
-    <rPh sb="193" eb="194">
-      <t>リツ</t>
-    </rPh>
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t xml:space="preserve">選手のコスト。
-最大値は100。
-●コストは投手パラメータの防御率、与四死球率、奪三振率、被安打率、被本塁打率のランキングで計算する。（ビギナーは防御率のみ）
-●ランクはA～Fとし、それぞれ以下の評価値を付与する。
-A:10、B:8、C:6、D:4、E:2、F:1
-●各パラメータのランク評価値を合計し、MAX100となる倍率で計算する。（小数点以下を四捨五入）
-例：
-防御率：A、与四死球率：C、奪三振率：A、被安打率：E、被本塁打率：D
-コスト=100*（10+6+10+2+4)/50
-       =64
-</t>
-    <rPh sb="0" eb="2">
-      <t>センシュ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>サイダイチ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>トウシュ</t>
-    </rPh>
-    <rPh sb="30" eb="33">
-      <t>ボウギョリツ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>アタ</t>
-    </rPh>
-    <rPh sb="35" eb="38">
-      <t>シシキュウ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>リツ</t>
-    </rPh>
-    <rPh sb="40" eb="43">
-      <t>ダツサンシン</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>リツ</t>
-    </rPh>
-    <rPh sb="45" eb="48">
-      <t>ヒアンダ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>リツ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="51" eb="54">
-      <t>ホンルイダ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>リツ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ケイサン</t>
-    </rPh>
-    <rPh sb="73" eb="76">
-      <t>ボウギョリツ</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="100" eb="101">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t>フヨ</t>
-    </rPh>
-    <rPh sb="134" eb="135">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="144" eb="146">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="146" eb="147">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="148" eb="150">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="161" eb="163">
-      <t>バイリツ</t>
-    </rPh>
-    <rPh sb="164" eb="166">
-      <t>ケイサン</t>
-    </rPh>
-    <rPh sb="170" eb="173">
-      <t>ショウスウテン</t>
-    </rPh>
-    <rPh sb="173" eb="175">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="176" eb="180">
-      <t>シシャゴニュウ</t>
-    </rPh>
-    <rPh sb="182" eb="183">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="185" eb="187">
-      <t>ボウギョ</t>
-    </rPh>
-    <rPh sb="187" eb="188">
-      <t>リツ</t>
-    </rPh>
-    <rPh sb="191" eb="192">
-      <t>アタ</t>
-    </rPh>
-    <rPh sb="192" eb="195">
-      <t>シシキュウ</t>
-    </rPh>
-    <rPh sb="195" eb="196">
-      <t>リツ</t>
-    </rPh>
-    <rPh sb="199" eb="202">
-      <t>ダツサンシン</t>
-    </rPh>
-    <rPh sb="202" eb="203">
-      <t>リツ</t>
-    </rPh>
-    <rPh sb="206" eb="209">
-      <t>ヒアンダ</t>
-    </rPh>
-    <rPh sb="209" eb="210">
-      <t>リツ</t>
-    </rPh>
-    <rPh sb="213" eb="214">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="214" eb="217">
-      <t>ホンルイダ</t>
-    </rPh>
-    <rPh sb="217" eb="218">
-      <t>リツ</t>
-    </rPh>
+    <t>オープン</t>
     <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>オープン</t>
-    <phoneticPr fontId="8"/>
   </si>
   <si>
     <r>
@@ -1201,7 +948,7 @@
       </rPr>
       <t>.dat</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -1218,7 +965,7 @@
       </rPr>
       <t>.dat</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">選手を一意に決めるID。
@@ -1242,14 +989,14 @@
     <rPh sb="27" eb="29">
       <t>ニンブン</t>
     </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウト</t>
+    </rPh>
     <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>用途</t>
-    <rPh sb="0" eb="2">
-      <t>ヨウト</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>配布用</t>
@@ -1259,14 +1006,14 @@
     <rPh sb="2" eb="3">
       <t>ヨウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>配布用</t>
     <rPh sb="0" eb="3">
       <t>ハイフヨウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">オープンクラス用野手データ一覧。
@@ -1306,7 +1053,7 @@
     <rPh sb="50" eb="51">
       <t>ジュン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">ビギナークラス用野手データ一覧。
@@ -1346,7 +1093,7 @@
     <rPh sb="50" eb="51">
       <t>ジュン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">オープンクラス用投手データ一覧。
@@ -1365,7 +1112,7 @@
     <rPh sb="24" eb="26">
       <t>トウシュ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">ビギナークラス用投手データ一覧。
@@ -1384,11 +1131,11 @@
     <rPh sb="24" eb="26">
       <t>トウシュ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>ビギナー</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>評価用</t>
@@ -1398,7 +1145,7 @@
     <rPh sb="2" eb="3">
       <t>ヨウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">オープンクラス用野手データ一覧。
@@ -1438,7 +1185,7 @@
     <rPh sb="50" eb="51">
       <t>ジュン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">オープンクラス用投手データ一覧。
@@ -1457,7 +1204,7 @@
     <rPh sb="24" eb="26">
       <t>トウシュ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">ビギナークラス用野手データ一覧。
@@ -1497,7 +1244,7 @@
     <rPh sb="50" eb="51">
       <t>ジュン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">ビギナークラス用投手データ一覧。
@@ -1516,7 +1263,7 @@
     <rPh sb="24" eb="26">
       <t>トウシュ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -1533,7 +1280,7 @@
       </rPr>
       <t>_Beginner.dat</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -1550,25 +1297,391 @@
       </rPr>
       <t>_Beginner.dat</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>Batter_Beginner.dat</t>
   </si>
   <si>
     <t>Pitcher_Beginner.dat</t>
+  </si>
+  <si>
+    <r>
+      <t>選手のコスト。
+最大値は100。
+●コストは投手パラメータの防御率、与四死球率</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、奪三振率、被安打率、被本塁打率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>のランキングで計算する。（ビギナーは防御率のみ）
+●ランクはA～Fとし、それぞれ以下の評価値を付与する。
+A:10、B:8、C:6、D:4、E:2、F:1
+●各パラメータのランク評価値を合計し、MAX100となる倍率で計算する。（小数点以下を四捨五入）
+例：
+防御率：A、与四死球率：C
+コスト=100*（10+6)/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0
+       =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>センシュ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>サイダイチ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウシュ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ボウギョリツ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>シシキュウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>ダツサンシン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>ヒアンダ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="51" eb="54">
+      <t>ホンルイダ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="73" eb="76">
+      <t>ボウギョリツ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>バイリツ</t>
+    </rPh>
+    <rPh sb="164" eb="166">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="170" eb="173">
+      <t>ショウスウテン</t>
+    </rPh>
+    <rPh sb="173" eb="175">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="176" eb="180">
+      <t>シシャゴニュウ</t>
+    </rPh>
+    <rPh sb="182" eb="183">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="185" eb="187">
+      <t>ボウギョ</t>
+    </rPh>
+    <rPh sb="187" eb="188">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="191" eb="192">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="192" eb="195">
+      <t>シシキュウ</t>
+    </rPh>
+    <rPh sb="195" eb="196">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <r>
+      <t>選手のコスト。
+最大値は100。
+●コストは野手パラメータの打率、本塁打率</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、四球率、三振率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>のランキングで計算する。（ビギナーは打率のみ）
+●ランクはA～Fとし、それぞれ以下の評価値を付与する。
+A:10、B:8、C:6、D:4、E:2、F:1
+●各パラメータのランク評価値を合計し、MAX100となる倍率で計算する。（小数点以下を四捨五入）
+例：
+打率A、本塁打率：C
+コスト=100*（10+6)/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0
+       =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0
+</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>センシュ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>サイダイチ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヤシュ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ダリツ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ホンルイダ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シキュウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>サンシン</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ダリツ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t>バイリツ</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="159" eb="162">
+      <t>ショウスウテン</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="165" eb="169">
+      <t>シシャゴニュウ</t>
+    </rPh>
+    <rPh sb="171" eb="172">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="174" eb="176">
+      <t>ダリツ</t>
+    </rPh>
+    <rPh sb="178" eb="181">
+      <t>ホンルイダ</t>
+    </rPh>
+    <rPh sb="181" eb="182">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1641,8 +1754,17 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1670,6 +1792,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1713,104 +1841,116 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2119,9 +2259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2153,10 +2291,10 @@
       <c r="B6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="18" t="s">
+      <c r="C6" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="9" t="s">
@@ -2164,139 +2302,139 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A7" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="23" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A8" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E8" s="23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A8" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="21" t="s">
+    <row r="9" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A9" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A10" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A11" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="23" t="s">
+      <c r="C11" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E11" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A12" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A13" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A9" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="23" t="s">
+      <c r="C13" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A10" s="30" t="s">
+      <c r="E13" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A14" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="23" t="s">
+      <c r="B14" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A11" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A12" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="29" t="s">
+      <c r="E14" s="28" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A13" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A14" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -2383,7 +2521,7 @@
         <v>6</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>34</v>
@@ -2400,7 +2538,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>32</v>
@@ -2417,7 +2555,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>30</v>
@@ -2434,43 +2572,43 @@
         <v>6</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="D26" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="34" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="D27" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="34" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2487,8 +2625,8 @@
       <c r="D28" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>49</v>
+      <c r="E28" s="35" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
@@ -2524,8 +2662,8 @@
       <c r="D34" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="17" t="s">
-        <v>54</v>
+      <c r="E34" s="16" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -2573,60 +2711,60 @@
         <v>6</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="2" t="s">
+      <c r="D38" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="34" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="D39" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="34" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="2" t="s">
+      <c r="D40" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="34" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2643,12 +2781,12 @@
       <c r="D41" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E41" s="16" t="s">
-        <v>50</v>
+      <c r="E41" s="35" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/player_data/選手データ仕様.xlsx
+++ b/player_data/選手データ仕様.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -20,7 +20,7 @@
     <rPh sb="0" eb="2">
       <t>スウチ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>コスト
@@ -71,11 +71,11 @@
     <rPh sb="50" eb="54">
       <t>シシャゴニュウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>少数第3位</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>被本塁打率
@@ -89,7 +89,7 @@
     <rPh sb="4" eb="5">
       <t>リツ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">選手の安打を打たれる確率。
@@ -133,11 +133,11 @@
     <rPh sb="48" eb="52">
       <t>シシャゴニュウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>少数第3位</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>被安打率
@@ -148,7 +148,7 @@
     <rPh sb="3" eb="4">
       <t>リツ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">選手の三振を奪う確率。
@@ -204,7 +204,7 @@
     <rPh sb="47" eb="51">
       <t>シシャゴニュウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>奪三振率
@@ -270,7 +270,7 @@
     <rPh sb="54" eb="58">
       <t>シシャゴニュウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>与四死球率
@@ -290,7 +290,7 @@
     <rPh sb="4" eb="5">
       <t>リツ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">選手の打率データ。
@@ -305,14 +305,14 @@
     <rPh sb="10" eb="12">
       <t>サンコウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>防御率</t>
     <rPh sb="0" eb="3">
       <t>ボウギョリツ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">選手の名前。
@@ -343,28 +343,28 @@
     <rPh sb="37" eb="39">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>20文字</t>
     <rPh sb="2" eb="4">
       <t>モジ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>文字列</t>
     <rPh sb="0" eb="3">
       <t>モジレツ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>選手名</t>
     <rPh sb="0" eb="3">
       <t>センシュメイ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>ID</t>
@@ -374,21 +374,21 @@
     <rPh sb="0" eb="2">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>桁数</t>
     <rPh sb="0" eb="2">
       <t>ケタスウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>型</t>
     <rPh sb="0" eb="1">
       <t>カタ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>野手パラメータ名</t>
@@ -398,7 +398,7 @@
     <rPh sb="7" eb="8">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>●投手パラメータ一覧</t>
@@ -408,7 +408,7 @@
     <rPh sb="8" eb="10">
       <t>イチラン</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">打席結果が三振となる確率。
@@ -455,7 +455,7 @@
     <rPh sb="48" eb="52">
       <t>シシャゴニュウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>三振率
@@ -466,7 +466,7 @@
     <rPh sb="2" eb="3">
       <t>リツ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">打席結果が四球となる確率。
@@ -516,7 +516,7 @@
     <rPh sb="53" eb="57">
       <t>シシャゴニュウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>四球率
@@ -527,57 +527,7 @@
     <rPh sb="2" eb="3">
       <t>リツ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t xml:space="preserve">選手の本塁打を打つ確率。
-参考サイトのデータを使って計算。
-計算式：本塁打/（安打+二塁打+三塁打+本塁打）
-小数第4位を四捨五入。
-</t>
-    <rPh sb="0" eb="2">
-      <t>センシュ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ホンルイダ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクリツ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サンコウ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ケイサン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ケイサン</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>シキ</t>
-    </rPh>
-    <rPh sb="34" eb="37">
-      <t>ホンルイダ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ショウスウ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="61" eb="65">
-      <t>シシャゴニュウ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>本塁打率
@@ -597,7 +547,7 @@
     <rPh sb="10" eb="11">
       <t>イ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">選手の三塁打を打つ確率。
@@ -644,7 +594,7 @@
     <rPh sb="61" eb="65">
       <t>シシャゴニュウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>三塁打率
@@ -664,7 +614,7 @@
     <rPh sb="10" eb="11">
       <t>イ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">選手の二塁打を打つ確率。
@@ -717,7 +667,7 @@
     <rPh sb="61" eb="65">
       <t>シシャゴニュウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>二塁打率
@@ -737,7 +687,7 @@
     <rPh sb="10" eb="11">
       <t>イ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">選手の一塁打を打つ確率。
@@ -793,7 +743,7 @@
     <rPh sb="61" eb="65">
       <t>シシャゴニュウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>一塁打率
@@ -813,14 +763,14 @@
     <rPh sb="10" eb="11">
       <t>イ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>打率</t>
     <rPh sb="0" eb="2">
       <t>ダリツ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>●野手パラメータ一覧</t>
@@ -830,7 +780,7 @@
     <rPh sb="8" eb="10">
       <t>イチラン</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>■選手データ仕様</t>
@@ -840,39 +790,39 @@
     <rPh sb="6" eb="8">
       <t>シヨウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>●選手データファイル</t>
     <rPh sb="1" eb="3">
       <t>センシュ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ファイル名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>文字コード</t>
     <rPh sb="0" eb="2">
       <t>モジ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>UTF8</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">選手を一意に決めるID。
@@ -896,31 +846,31 @@
     <rPh sb="28" eb="30">
       <t>ニンブン</t>
     </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>クラス</t>
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>クラス</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>オープン</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>採用クラス</t>
     <rPh sb="0" eb="2">
       <t>サイヨウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>オープン
 ビギナー</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>オープン</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -948,7 +898,7 @@
       </rPr>
       <t>.dat</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -965,7 +915,7 @@
       </rPr>
       <t>.dat</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">選手を一意に決めるID。
@@ -989,14 +939,14 @@
     <rPh sb="27" eb="29">
       <t>ニンブン</t>
     </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウト</t>
+    </rPh>
     <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>用途</t>
-    <rPh sb="0" eb="2">
-      <t>ヨウト</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>配布用</t>
@@ -1006,14 +956,14 @@
     <rPh sb="2" eb="3">
       <t>ヨウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>配布用</t>
     <rPh sb="0" eb="3">
       <t>ハイフヨウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">オープンクラス用野手データ一覧。
@@ -1053,7 +1003,7 @@
     <rPh sb="50" eb="51">
       <t>ジュン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">ビギナークラス用野手データ一覧。
@@ -1093,7 +1043,7 @@
     <rPh sb="50" eb="51">
       <t>ジュン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">オープンクラス用投手データ一覧。
@@ -1112,7 +1062,7 @@
     <rPh sb="24" eb="26">
       <t>トウシュ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">ビギナークラス用投手データ一覧。
@@ -1131,11 +1081,11 @@
     <rPh sb="24" eb="26">
       <t>トウシュ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ビギナー</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>評価用</t>
@@ -1145,7 +1095,7 @@
     <rPh sb="2" eb="3">
       <t>ヨウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">オープンクラス用野手データ一覧。
@@ -1185,7 +1135,7 @@
     <rPh sb="50" eb="51">
       <t>ジュン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">オープンクラス用投手データ一覧。
@@ -1204,7 +1154,7 @@
     <rPh sb="24" eb="26">
       <t>トウシュ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">ビギナークラス用野手データ一覧。
@@ -1244,7 +1194,7 @@
     <rPh sb="50" eb="51">
       <t>ジュン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">ビギナークラス用投手データ一覧。
@@ -1263,7 +1213,7 @@
     <rPh sb="24" eb="26">
       <t>トウシュ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -1280,7 +1230,7 @@
       </rPr>
       <t>_Beginner.dat</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -1297,7 +1247,7 @@
       </rPr>
       <t>_Beginner.dat</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>Batter_Beginner.dat</t>
@@ -1491,7 +1441,7 @@
     <rPh sb="195" eb="196">
       <t>リツ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <r>
@@ -1661,19 +1611,87 @@
     <rPh sb="181" eb="182">
       <t>リツ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <r>
+      <t>選手の本塁打を打つ確率。
+参考サイトのデータを使って計算。
+計算式：1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">（一塁打率+二塁打率+三塁打率）
+小数第4位を四捨五入。
+</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>センシュ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ホンルイダ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ショウスウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="59" eb="63">
+      <t>シシャゴニュウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1841,115 +1859,118 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1971,7 +1992,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2013,7 +2034,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2048,7 +2069,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2259,187 +2280,189 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="13" customWidth="1"/>
+    <col min="4" max="4" width="11" style="12" customWidth="1"/>
     <col min="5" max="5" width="68.75" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="E6" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A7" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C7" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D7" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A7" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="21" t="s">
+      <c r="E7" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A8" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="23" t="s">
+      <c r="D8" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A9" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A8" s="19" t="s">
+    <row r="10" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A10" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A11" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A9" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="21" t="s">
+      <c r="B11" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A10" s="29" t="s">
+      <c r="D11" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A12" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A13" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B13" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="23" t="s">
+      <c r="D13" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A14" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A11" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A12" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A13" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="26" t="s">
+      <c r="C14" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="28" t="s">
+      <c r="D14" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="27" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A14" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>65</v>
-      </c>
-    </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
-        <v>37</v>
+      <c r="A16" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -2452,8 +2475,8 @@
       <c r="C18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>47</v>
+      <c r="D18" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>19</v>
@@ -2469,11 +2492,11 @@
       <c r="C19" s="3">
         <v>4</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>44</v>
+      <c r="D19" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -2486,8 +2509,8 @@
       <c r="C20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>48</v>
+      <c r="D20" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>14</v>
@@ -2495,7 +2518,7 @@
     </row>
     <row r="21" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>0</v>
@@ -2503,16 +2526,16 @@
       <c r="C21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>48</v>
+      <c r="D21" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="7" t="s">
-        <v>35</v>
+      <c r="A22" s="36" t="s">
+        <v>34</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>0</v>
@@ -2520,16 +2543,16 @@
       <c r="C22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>49</v>
+      <c r="D22" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>0</v>
@@ -2537,16 +2560,16 @@
       <c r="C23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>49</v>
+      <c r="D23" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>0</v>
@@ -2554,16 +2577,16 @@
       <c r="C24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>49</v>
+      <c r="D24" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>0</v>
@@ -2571,44 +2594,44 @@
       <c r="C25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>28</v>
+      <c r="D25" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="34" t="s">
+      <c r="D26" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="33" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="34" t="s">
+      <c r="D27" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="33" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2622,15 +2645,15 @@
       <c r="C28" s="3">
         <v>3</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="35" t="s">
-        <v>71</v>
+      <c r="D28" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2644,7 +2667,7 @@
       <c r="C33" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="15"/>
+      <c r="D33" s="14"/>
       <c r="E33" s="6" t="s">
         <v>19</v>
       </c>
@@ -2659,11 +2682,11 @@
       <c r="C34" s="3">
         <v>4</v>
       </c>
-      <c r="D34" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>52</v>
+      <c r="D34" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -2676,8 +2699,8 @@
       <c r="C35" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="12" t="s">
-        <v>48</v>
+      <c r="D35" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>14</v>
@@ -2693,8 +2716,8 @@
       <c r="C36" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="12" t="s">
-        <v>48</v>
+      <c r="D36" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>12</v>
@@ -2710,61 +2733,61 @@
       <c r="C37" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="12" t="s">
-        <v>49</v>
+      <c r="D37" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="C38" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38" s="34" t="s">
+      <c r="D38" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="33" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39" s="34" t="s">
+      <c r="D39" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="33" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="32" t="s">
+      <c r="C40" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40" s="34" t="s">
+      <c r="D40" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="33" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2778,15 +2801,15 @@
       <c r="C41" s="3">
         <v>3</v>
       </c>
-      <c r="D41" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" s="35" t="s">
-        <v>70</v>
+      <c r="D41" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
